--- a/COMPRA/MALAGA/COM-MALG-CIUDAD (56).xlsx
+++ b/COMPRA/MALAGA/COM-MALG-CIUDAD (56).xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\git hub\An-lisis-Compra-Alquiler-Idealista\COMPRA\MALAGA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D2139-CAA0-4C27-8D44-FD1F2A9BA8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="134">
   <si>
     <t>LABEL-1</t>
   </si>
@@ -64,12 +70,6 @@
     <t>1/</t>
   </si>
   <si>
-    <t>Sin fotos</t>
-  </si>
-  <si>
-    <t>Precio medio 3.911 eur/m²</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>Anterior</t>
-  </si>
-  <si>
     <t>Piso en calle Olmos, 47, Cerrado de Calderón - Hacienda Paredes, Málaga</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Piso en calle Héroe de Sostoa, La Princesa, Málaga</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>650.000€</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>230.000€</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Garaje incluido</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>1 hab.</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>5 hab.</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>50 m²</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>158 m²</t>
   </si>
   <si>
@@ -338,9 +323,6 @@
   </si>
   <si>
     <t>Planta 3ª exterior sin ascensor</t>
-  </si>
-  <si>
-    <t>57</t>
   </si>
   <si>
     <t>Se trata de una finca muy grande, a 5 minutos del limonar y de la hipica
@@ -415,9 +397,6 @@
     <t>Piso junto a Vialia, Málaga</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>Vista mar, con todos los servicios, supermercado, farmacia, colegios, restaurantes transporte en la puerta. , zona tranquila, ideal para familias. No están incluidos los gastos de inmobiliarias, gastos iva, notariales….</t>
   </si>
   <si>
@@ -451,24 +430,15 @@
     <t>Gilmar Consulting Inmobiliario, vende este piso en Málaga como una excelente oportunidad para aquellos que buscan invertir en una propiedad con gran potencial de rentabilidad. Situado en una ubicación privilegiada, en la Avenida Héroe de Sostoa, a tan solo 100 metros del próximo nuevo Puerto Deportivo San Andrés y del</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>Ver teléfono</t>
   </si>
   <si>
     <t>Apartamento</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>Descartar</t>
   </si>
   <si>
-    <t>Siguiente</t>
-  </si>
-  <si>
     <t>Guardar</t>
   </si>
   <si>
@@ -476,13 +446,16 @@
   </si>
   <si>
     <t>Venta</t>
+  </si>
+  <si>
+    <t>LABEL-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +467,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,13 +524,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,7 +576,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -623,6 +610,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -657,9 +645,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -832,14 +821,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,953 +868,970 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N6" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s">
         <v>130</v>
       </c>
-      <c r="J8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" t="s">
-        <v>142</v>
-      </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s">
         <v>115</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" t="s">
         <v>131</v>
       </c>
-      <c r="J9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s">
-        <v>12</v>
-      </c>
       <c r="O9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N11" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s">
         <v>130</v>
       </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s">
-        <v>143</v>
-      </c>
-      <c r="N14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" t="s">
         <v>121</v>
       </c>
-      <c r="I15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" t="s">
-        <v>140</v>
-      </c>
-      <c r="M18" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" t="s">
-        <v>130</v>
-      </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M19" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N19" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
         <v>126</v>
       </c>
-      <c r="I20" t="s">
-        <v>135</v>
-      </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" t="s">
-        <v>141</v>
-      </c>
-      <c r="M21" t="s">
-        <v>143</v>
-      </c>
-      <c r="N21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="P20" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>